--- a/User_Study/GraphLite_Evaluation/GraphLite User Study Data.xlsx
+++ b/User_Study/GraphLite_Evaluation/GraphLite User Study Data.xlsx
@@ -10,8 +10,9 @@
     <sheet state="visible" name="Completion Time LTP" sheetId="5" r:id="rId8"/>
     <sheet state="visible" name="Completion Time LTC" sheetId="6" r:id="rId9"/>
     <sheet state="visible" name="Schedule" sheetId="7" r:id="rId10"/>
-    <sheet state="visible" name="Task Failure" sheetId="8" r:id="rId11"/>
-    <sheet state="visible" name="Errors" sheetId="9" r:id="rId12"/>
+    <sheet state="visible" name="Chart Assignment" sheetId="8" r:id="rId11"/>
+    <sheet state="visible" name="Task Failure" sheetId="9" r:id="rId12"/>
+    <sheet state="visible" name="Errors" sheetId="10" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1643" uniqueCount="257">
   <si>
     <t>Participant ID</t>
   </si>
@@ -207,6 +208,81 @@
     <t>P25</t>
   </si>
   <si>
+    <t>Bar Comparison</t>
+  </si>
+  <si>
+    <t>Bar Filtration</t>
+  </si>
+  <si>
+    <t>Line Comparison</t>
+  </si>
+  <si>
+    <t>Line Prediction</t>
+  </si>
+  <si>
+    <t>Participant</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>B8</t>
+  </si>
+  <si>
+    <t>B9</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>L7</t>
+  </si>
+  <si>
+    <t>L8</t>
+  </si>
+  <si>
+    <t>L9</t>
+  </si>
+  <si>
+    <t>L10</t>
+  </si>
+  <si>
+    <t>L6</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>L3</t>
+  </si>
+  <si>
+    <t>L4</t>
+  </si>
+  <si>
+    <t>L5</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
     <t xml:space="preserve">SM </t>
   </si>
   <si>
@@ -247,9 +323,6 @@
   </si>
   <si>
     <t>SCCF - Comparison</t>
-  </si>
-  <si>
-    <t>Participant</t>
   </si>
   <si>
     <t>Ground Truth</t>
@@ -724,7 +797,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -739,6 +812,20 @@
     <font>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -755,7 +842,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -765,6 +852,12 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
@@ -787,6 +880,10 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -1571,6 +1668,3730 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="14" max="14" width="28.25"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="W7" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="W8" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="W9" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="W10" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="W11" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="V12" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="W12" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="V13" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="W13" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="U14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V14" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="W14" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="U15" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="V15" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="W15" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="U16" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="V16" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="W16" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="U17" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="V17" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="W17" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="U18" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="V18" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="W18" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="U19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="V19" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="W19" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="U20" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="V20" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="W20" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="U21" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="V21" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="W21" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="U22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V22" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="W22" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="U23" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="V23" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="W23" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="U24" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="V24" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="W24" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="U25" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="V25" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="W25" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="U26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V26" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="W26" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="U27" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V27" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="W27" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="U28" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="V28" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="W28" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="U29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="V29" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="W29" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="K32" s="2"/>
+    </row>
+    <row r="33">
+      <c r="B33" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="6"/>
+      <c r="B66" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="H66" s="8"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="6"/>
+      <c r="K66" s="8"/>
+      <c r="L66" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="M66" s="8"/>
+      <c r="N66" s="6"/>
+      <c r="O66" s="6"/>
+      <c r="P66" s="8"/>
+      <c r="Q66" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="R66" s="8"/>
+      <c r="S66" s="6"/>
+      <c r="T66" s="6"/>
+      <c r="U66" s="8"/>
+      <c r="V66" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="W66" s="8"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G67" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="H67" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="I67" s="6"/>
+      <c r="J67" s="6"/>
+      <c r="K67" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="L67" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="M67" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="N67" s="6"/>
+      <c r="O67" s="6"/>
+      <c r="P67" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q67" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="R67" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="S67" s="6"/>
+      <c r="T67" s="6"/>
+      <c r="U67" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="V67" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="W67" s="9" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="6"/>
+      <c r="B68" s="6"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="6"/>
+      <c r="J68" s="6"/>
+      <c r="K68" s="8"/>
+      <c r="L68" s="8"/>
+      <c r="M68" s="8"/>
+      <c r="N68" s="6"/>
+      <c r="O68" s="6"/>
+      <c r="P68" s="8"/>
+      <c r="Q68" s="8"/>
+      <c r="R68" s="8"/>
+      <c r="S68" s="6"/>
+      <c r="T68" s="6"/>
+      <c r="U68" s="8"/>
+      <c r="V68" s="8"/>
+      <c r="W68" s="8"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C69" s="7">
+        <v>21.9</v>
+      </c>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G69" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="H69" s="9">
+        <v>12.9</v>
+      </c>
+      <c r="I69" s="6"/>
+      <c r="J69" s="6"/>
+      <c r="K69" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="L69" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="M69" s="9">
+        <v>21.2</v>
+      </c>
+      <c r="N69" s="6"/>
+      <c r="O69" s="6"/>
+      <c r="P69" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q69" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="R69" s="9">
+        <v>19.8</v>
+      </c>
+      <c r="S69" s="6"/>
+      <c r="T69" s="6"/>
+      <c r="U69" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="V69" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="W69" s="9">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="C70" s="7">
+        <v>22.1</v>
+      </c>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="H70" s="9">
+        <v>7.9</v>
+      </c>
+      <c r="I70" s="6"/>
+      <c r="J70" s="6"/>
+      <c r="K70" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L70" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="M70" s="9">
+        <v>21.3</v>
+      </c>
+      <c r="N70" s="6"/>
+      <c r="O70" s="6"/>
+      <c r="P70" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q70" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="R70" s="9">
+        <v>18.1</v>
+      </c>
+      <c r="S70" s="6"/>
+      <c r="T70" s="6"/>
+      <c r="U70" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="V70" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="W70" s="9">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C71" s="7">
+        <v>20.0</v>
+      </c>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G71" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="H71" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="I71" s="6"/>
+      <c r="J71" s="6"/>
+      <c r="K71" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="L71" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="M71" s="9">
+        <v>18.3</v>
+      </c>
+      <c r="N71" s="6"/>
+      <c r="O71" s="6"/>
+      <c r="P71" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q71" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="R71" s="9">
+        <v>20.1</v>
+      </c>
+      <c r="S71" s="6"/>
+      <c r="T71" s="6"/>
+      <c r="U71" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="V71" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="W71" s="9">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C72" s="7">
+        <v>17.7</v>
+      </c>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G72" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="H72" s="9">
+        <v>10.0</v>
+      </c>
+      <c r="I72" s="6"/>
+      <c r="J72" s="6"/>
+      <c r="K72" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L72" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="M72" s="9">
+        <v>19.1</v>
+      </c>
+      <c r="N72" s="6"/>
+      <c r="O72" s="6"/>
+      <c r="P72" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q72" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="R72" s="9">
+        <v>20.6</v>
+      </c>
+      <c r="S72" s="6"/>
+      <c r="T72" s="6"/>
+      <c r="U72" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="V72" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="W72" s="9">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C73" s="7">
+        <v>20.9</v>
+      </c>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G73" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="H73" s="9">
+        <v>12.0</v>
+      </c>
+      <c r="I73" s="6"/>
+      <c r="J73" s="6"/>
+      <c r="K73" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="L73" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="M73" s="9">
+        <v>18.4</v>
+      </c>
+      <c r="N73" s="6"/>
+      <c r="O73" s="6"/>
+      <c r="P73" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q73" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="R73" s="9">
+        <v>17.5</v>
+      </c>
+      <c r="S73" s="6"/>
+      <c r="T73" s="6"/>
+      <c r="U73" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="V73" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="W73" s="9">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="C74" s="7">
+        <v>19.3</v>
+      </c>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="H74" s="9">
+        <v>5.9</v>
+      </c>
+      <c r="I74" s="6"/>
+      <c r="J74" s="6"/>
+      <c r="K74" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L74" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="M74" s="9">
+        <v>16.6</v>
+      </c>
+      <c r="N74" s="6"/>
+      <c r="O74" s="6"/>
+      <c r="P74" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q74" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="R74" s="9">
+        <v>20.8</v>
+      </c>
+      <c r="S74" s="6"/>
+      <c r="T74" s="6"/>
+      <c r="U74" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="V74" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="W74" s="9">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="C75" s="7">
+        <v>24.4</v>
+      </c>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="H75" s="9">
+        <v>3.3</v>
+      </c>
+      <c r="I75" s="6"/>
+      <c r="J75" s="6"/>
+      <c r="K75" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L75" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="M75" s="9">
+        <v>20.7</v>
+      </c>
+      <c r="N75" s="6"/>
+      <c r="O75" s="6"/>
+      <c r="P75" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q75" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="R75" s="9">
+        <v>17.1</v>
+      </c>
+      <c r="S75" s="6"/>
+      <c r="T75" s="6"/>
+      <c r="U75" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="V75" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="W75" s="9">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="C76" s="7">
+        <v>24.1</v>
+      </c>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G76" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H76" s="9">
+        <v>6.1</v>
+      </c>
+      <c r="I76" s="6"/>
+      <c r="J76" s="6"/>
+      <c r="K76" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L76" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="M76" s="9">
+        <v>20.4</v>
+      </c>
+      <c r="N76" s="6"/>
+      <c r="O76" s="6"/>
+      <c r="P76" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q76" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="R76" s="9">
+        <v>17.0</v>
+      </c>
+      <c r="S76" s="6"/>
+      <c r="T76" s="6"/>
+      <c r="U76" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="V76" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="W76" s="9">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="C77" s="7">
+        <v>23.0</v>
+      </c>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="H77" s="9">
+        <v>11.5</v>
+      </c>
+      <c r="I77" s="6"/>
+      <c r="J77" s="6"/>
+      <c r="K77" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="L77" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="M77" s="9">
+        <v>17.3</v>
+      </c>
+      <c r="N77" s="6"/>
+      <c r="O77" s="6"/>
+      <c r="P77" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q77" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="R77" s="9">
+        <v>18.6</v>
+      </c>
+      <c r="S77" s="6"/>
+      <c r="T77" s="6"/>
+      <c r="U77" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="V77" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="W77" s="9">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="C78" s="7">
+        <v>19.6</v>
+      </c>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="H78" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="I78" s="6"/>
+      <c r="J78" s="6"/>
+      <c r="K78" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="L78" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="M78" s="9">
+        <v>21.8</v>
+      </c>
+      <c r="N78" s="6"/>
+      <c r="O78" s="6"/>
+      <c r="P78" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q78" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="R78" s="9">
+        <v>17.2</v>
+      </c>
+      <c r="S78" s="6"/>
+      <c r="T78" s="6"/>
+      <c r="U78" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="V78" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="W78" s="9">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="C79" s="7">
+        <v>23.5</v>
+      </c>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G79" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="H79" s="9">
+        <v>12.2</v>
+      </c>
+      <c r="I79" s="6"/>
+      <c r="J79" s="6"/>
+      <c r="K79" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L79" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="M79" s="9">
+        <v>21.6</v>
+      </c>
+      <c r="N79" s="6"/>
+      <c r="O79" s="6"/>
+      <c r="P79" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q79" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="R79" s="9">
+        <v>16.6</v>
+      </c>
+      <c r="S79" s="6"/>
+      <c r="T79" s="6"/>
+      <c r="U79" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="V79" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="W79" s="9">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="C80" s="7">
+        <v>22.8</v>
+      </c>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G80" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="H80" s="9">
+        <v>8.4</v>
+      </c>
+      <c r="I80" s="6"/>
+      <c r="J80" s="6"/>
+      <c r="K80" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="L80" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="M80" s="9">
+        <v>18.6</v>
+      </c>
+      <c r="N80" s="6"/>
+      <c r="O80" s="6"/>
+      <c r="P80" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q80" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="R80" s="9">
+        <v>17.2</v>
+      </c>
+      <c r="S80" s="6"/>
+      <c r="T80" s="6"/>
+      <c r="U80" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="V80" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="W80" s="9">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="C81" s="7">
+        <v>24.3</v>
+      </c>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="G81" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="H81" s="9">
+        <v>12.1</v>
+      </c>
+      <c r="I81" s="6"/>
+      <c r="J81" s="6"/>
+      <c r="K81" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="L81" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="M81" s="9">
+        <v>16.6</v>
+      </c>
+      <c r="N81" s="6"/>
+      <c r="O81" s="6"/>
+      <c r="P81" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q81" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="R81" s="9">
+        <v>14.7</v>
+      </c>
+      <c r="S81" s="6"/>
+      <c r="T81" s="6"/>
+      <c r="U81" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="V81" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="W81" s="9">
+        <v>8.3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="C82" s="7">
+        <v>18.5</v>
+      </c>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="G82" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="H82" s="9">
+        <v>5.8</v>
+      </c>
+      <c r="I82" s="6"/>
+      <c r="J82" s="6"/>
+      <c r="K82" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="L82" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="M82" s="9">
+        <v>18.1</v>
+      </c>
+      <c r="N82" s="6"/>
+      <c r="O82" s="6"/>
+      <c r="P82" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q82" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="R82" s="9">
+        <v>19.0</v>
+      </c>
+      <c r="S82" s="6"/>
+      <c r="T82" s="6"/>
+      <c r="U82" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="V82" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="W82" s="9">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="C83" s="7">
+        <v>19.5</v>
+      </c>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="G83" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="H83" s="9">
+        <v>13.8</v>
+      </c>
+      <c r="I83" s="6"/>
+      <c r="J83" s="6"/>
+      <c r="K83" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="L83" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="M83" s="9">
+        <v>20.8</v>
+      </c>
+      <c r="N83" s="6"/>
+      <c r="O83" s="6"/>
+      <c r="P83" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q83" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="R83" s="9">
+        <v>16.2</v>
+      </c>
+      <c r="S83" s="6"/>
+      <c r="T83" s="6"/>
+      <c r="U83" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="V83" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="W83" s="9">
+        <v>8.2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="C84" s="7">
+        <v>19.5</v>
+      </c>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G84" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="H84" s="9">
+        <v>8.8</v>
+      </c>
+      <c r="I84" s="6"/>
+      <c r="J84" s="6"/>
+      <c r="K84" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="L84" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="M84" s="9">
+        <v>20.4</v>
+      </c>
+      <c r="N84" s="6"/>
+      <c r="O84" s="6"/>
+      <c r="P84" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q84" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="R84" s="9">
+        <v>20.3</v>
+      </c>
+      <c r="S84" s="6"/>
+      <c r="T84" s="6"/>
+      <c r="U84" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="V84" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="W84" s="9">
+        <v>8.3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="C85" s="7">
+        <v>20.3</v>
+      </c>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="G85" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="H85" s="9">
+        <v>11.3</v>
+      </c>
+      <c r="I85" s="6"/>
+      <c r="J85" s="6"/>
+      <c r="K85" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="L85" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="M85" s="9">
+        <v>19.0</v>
+      </c>
+      <c r="N85" s="6"/>
+      <c r="O85" s="6"/>
+      <c r="P85" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q85" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="R85" s="9">
+        <v>20.6</v>
+      </c>
+      <c r="S85" s="6"/>
+      <c r="T85" s="6"/>
+      <c r="U85" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="V85" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="W85" s="9">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="C86" s="7">
+        <v>14.2</v>
+      </c>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="G86" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="H86" s="9">
+        <v>10.7</v>
+      </c>
+      <c r="I86" s="6"/>
+      <c r="J86" s="6"/>
+      <c r="K86" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="L86" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="M86" s="9">
+        <v>19.8</v>
+      </c>
+      <c r="N86" s="6"/>
+      <c r="O86" s="6"/>
+      <c r="P86" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q86" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="R86" s="9">
+        <v>19.8</v>
+      </c>
+      <c r="S86" s="6"/>
+      <c r="T86" s="6"/>
+      <c r="U86" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="V86" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="W86" s="9">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="C87" s="7">
+        <v>19.6</v>
+      </c>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G87" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="H87" s="9">
+        <v>9.4</v>
+      </c>
+      <c r="I87" s="6"/>
+      <c r="J87" s="6"/>
+      <c r="K87" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L87" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="M87" s="9">
+        <v>16.4</v>
+      </c>
+      <c r="N87" s="6"/>
+      <c r="O87" s="6"/>
+      <c r="P87" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q87" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="R87" s="9">
+        <v>20.2</v>
+      </c>
+      <c r="S87" s="6"/>
+      <c r="T87" s="6"/>
+      <c r="U87" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="V87" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="W87" s="9">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="C88" s="7">
+        <v>18.7</v>
+      </c>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="G88" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="H88" s="9">
+        <v>11.6</v>
+      </c>
+      <c r="I88" s="6"/>
+      <c r="J88" s="6"/>
+      <c r="K88" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="L88" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="M88" s="9">
+        <v>21.8</v>
+      </c>
+      <c r="N88" s="6"/>
+      <c r="O88" s="6"/>
+      <c r="P88" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q88" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="R88" s="9">
+        <v>21.4</v>
+      </c>
+      <c r="S88" s="6"/>
+      <c r="T88" s="6"/>
+      <c r="U88" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="V88" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="W88" s="9">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="C89" s="7">
+        <v>17.4</v>
+      </c>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="G89" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="H89" s="9">
+        <v>4.6</v>
+      </c>
+      <c r="I89" s="6"/>
+      <c r="J89" s="6"/>
+      <c r="K89" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="L89" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="M89" s="9">
+        <v>21.6</v>
+      </c>
+      <c r="N89" s="6"/>
+      <c r="O89" s="6"/>
+      <c r="P89" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q89" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="R89" s="9">
+        <v>12.7</v>
+      </c>
+      <c r="S89" s="6"/>
+      <c r="T89" s="6"/>
+      <c r="U89" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="V89" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="W89" s="9">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="C90" s="7">
+        <v>24.9</v>
+      </c>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G90" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="H90" s="9">
+        <v>11.7</v>
+      </c>
+      <c r="I90" s="6"/>
+      <c r="J90" s="6"/>
+      <c r="K90" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="L90" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="M90" s="9">
+        <v>17.0</v>
+      </c>
+      <c r="N90" s="6"/>
+      <c r="O90" s="6"/>
+      <c r="P90" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q90" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="R90" s="9">
+        <v>15.2</v>
+      </c>
+      <c r="S90" s="6"/>
+      <c r="T90" s="6"/>
+      <c r="U90" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="V90" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="W90" s="9">
+        <v>8.2</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="C91" s="7">
+        <v>23.2</v>
+      </c>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G91" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="H91" s="9">
+        <v>8.0</v>
+      </c>
+      <c r="I91" s="6"/>
+      <c r="J91" s="6"/>
+      <c r="K91" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L91" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="M91" s="9">
+        <v>17.2</v>
+      </c>
+      <c r="N91" s="6"/>
+      <c r="O91" s="6"/>
+      <c r="P91" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q91" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="R91" s="9">
+        <v>18.1</v>
+      </c>
+      <c r="S91" s="6"/>
+      <c r="T91" s="6"/>
+      <c r="U91" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="V91" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="W91" s="9">
+        <v>9.7</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="C92" s="7">
+        <v>23.9</v>
+      </c>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G92" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="H92" s="9">
+        <v>8.1</v>
+      </c>
+      <c r="I92" s="6"/>
+      <c r="J92" s="6"/>
+      <c r="K92" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L92" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="M92" s="9">
+        <v>14.0</v>
+      </c>
+      <c r="N92" s="6"/>
+      <c r="O92" s="6"/>
+      <c r="P92" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q92" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="R92" s="9">
+        <v>18.4</v>
+      </c>
+      <c r="S92" s="6"/>
+      <c r="T92" s="6"/>
+      <c r="U92" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V92" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="W92" s="9">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C93" s="7">
+        <v>24.1</v>
+      </c>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="H93" s="9">
+        <v>8.5</v>
+      </c>
+      <c r="I93" s="6"/>
+      <c r="J93" s="6"/>
+      <c r="K93" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="L93" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="M93" s="9">
+        <v>16.0</v>
+      </c>
+      <c r="N93" s="6"/>
+      <c r="O93" s="6"/>
+      <c r="P93" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q93" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="R93" s="9">
+        <v>19.3</v>
+      </c>
+      <c r="S93" s="6"/>
+      <c r="T93" s="6"/>
+      <c r="U93" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="V93" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="W93" s="9">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="C94" s="7">
+        <v>22.3</v>
+      </c>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G94" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="H94" s="9">
+        <v>6.4</v>
+      </c>
+      <c r="I94" s="6"/>
+      <c r="J94" s="6"/>
+      <c r="K94" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L94" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="M94" s="9">
+        <v>20.9</v>
+      </c>
+      <c r="N94" s="6"/>
+      <c r="O94" s="6"/>
+      <c r="P94" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q94" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="R94" s="9">
+        <v>18.0</v>
+      </c>
+      <c r="S94" s="6"/>
+      <c r="T94" s="6"/>
+      <c r="U94" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="V94" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="W94" s="9">
+        <v>6.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
@@ -36544,137 +40365,2024 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="I1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="Q1" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
+      <c r="Y1" s="5" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" s="2">
+        <v>66</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I5" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD5" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I6" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="Z6" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD6" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="Z7" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD7" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I8" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="Z8" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB8" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD8" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2">
         <v>6.0</v>
       </c>
-      <c r="C3" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="B9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" s="2">
         <v>6.0</v>
       </c>
-      <c r="E3" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="2">
+      <c r="J9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="Z9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA9" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB9" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC9" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD9" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="Z10" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA10" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB10" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC10" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD10" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I11" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y11" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="Z11" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA11" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB11" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD11" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I12" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="V12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y12" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="Z12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC12" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD12" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I13" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="V13" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y13" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="Z13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB13" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC13" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD13" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I14" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="U14" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="V14" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y14" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="Z14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA14" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB14" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC14" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD14" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I15" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="U15" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="V15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y15" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="Z15" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA15" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB15" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC15" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD15" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2">
         <v>13.0</v>
       </c>
-      <c r="C4" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
+      <c r="B16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="2">
+      <c r="F16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I16" s="2">
         <v>13.0</v>
       </c>
-      <c r="C5" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
+      <c r="J16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="U16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="V16" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y16" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="Z16" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA16" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB16" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD16" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="2">
+      <c r="F17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I17" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="U17" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="V17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y17" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="Z17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA17" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC17" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD17" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I18" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="U18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="V18" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y18" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="Z18" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB18" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC18" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD18" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I19" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="S19" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="U19" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="V19" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y19" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="Z19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA19" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB19" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC19" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD19" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I20" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="S20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="T20" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="U20" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="V20" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y20" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="Z20" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA20" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB20" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC20" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD20" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I21" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="S21" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="T21" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="U21" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="V21" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y21" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="Z21" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA21" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB21" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD21" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2">
+        <v>19.0</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I22" s="2">
+        <v>19.0</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>19.0</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="U22" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="V22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y22" s="2">
+        <v>19.0</v>
+      </c>
+      <c r="Z22" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA22" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC22" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD22" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I23" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="S23" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="T23" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="U23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="V23" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y23" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="Z23" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA23" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB23" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC23" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD23" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2">
+        <v>21.0</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I24" s="2">
+        <v>21.0</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>21.0</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="S24" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="T24" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="U24" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="V24" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y24" s="2">
+        <v>21.0</v>
+      </c>
+      <c r="Z24" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA24" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB24" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC24" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD24" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2">
+        <v>22.0</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I25" s="2">
+        <v>22.0</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>22.0</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="S25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="T25" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="U25" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="V25" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y25" s="2">
+        <v>22.0</v>
+      </c>
+      <c r="Z25" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA25" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB25" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC25" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD25" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2">
+        <v>23.0</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I26" s="2">
+        <v>23.0</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>23.0</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="S26" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="T26" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="U26" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="V26" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y26" s="2">
+        <v>23.0</v>
+      </c>
+      <c r="Z26" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA26" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB26" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC26" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD26" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2">
+        <v>24.0</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I27" s="2">
+        <v>24.0</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>24.0</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="S27" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="T27" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="U27" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="V27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y27" s="2">
+        <v>24.0</v>
+      </c>
+      <c r="Z27" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA27" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB27" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC27" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD27" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2">
+        <v>25.0</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I28" s="2">
+        <v>25.0</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>25.0</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="S28" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="T28" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="U28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="V28" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y28" s="2">
+        <v>25.0</v>
+      </c>
+      <c r="Z28" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA28" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB28" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC28" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD28" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2">
         <v>26.0</v>
       </c>
-      <c r="C6" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="B29" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I29" s="2">
         <v>26.0</v>
       </c>
-      <c r="E6" s="2">
+      <c r="J29" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q29" s="2">
         <v>26.0</v>
       </c>
-      <c r="F6" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0.0</v>
+      <c r="R29" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="S29" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="T29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="U29" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="V29" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y29" s="2">
+        <v>26.0</v>
+      </c>
+      <c r="Z29" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA29" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB29" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC29" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD29" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="Q1:V1"/>
+    <mergeCell ref="Y1:AD1"/>
+  </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -36688,3714 +42396,136 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="14" max="14" width="28.25"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="B1" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>78</v>
+        <v>87</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
+      </c>
+      <c r="B4" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="M5" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="P5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="W5" s="2" t="s">
-        <v>94</v>
+      <c r="B5" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="U6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="V6" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="W6" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
+      </c>
+      <c r="B6" s="2">
+        <v>26.0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>26.0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>26.0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="U7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="V7" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="W7" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="U8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="V8" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="W8" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="R9" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="U9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="V9" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="W9" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="U10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="V10" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="W10" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="U11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="V11" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="W11" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="U12" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="V12" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="W12" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q13" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="R13" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="U13" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="V13" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="W13" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q14" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="R14" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="U14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="V14" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="W14" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q15" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="R15" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="U15" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="V15" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="W15" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q16" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="R16" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="U16" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="V16" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="W16" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="P17" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q17" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="R17" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="U17" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="V17" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="W17" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="P18" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q18" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="R18" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="U18" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="V18" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="W18" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="P19" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q19" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="R19" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="U19" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="V19" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="W19" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="P20" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q20" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="R20" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="U20" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="V20" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="W20" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="P21" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q21" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="R21" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="U21" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="V21" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="W21" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="P22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q22" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="R22" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="U22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V22" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="W22" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="P23" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q23" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="R23" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="U23" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="V23" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="W23" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="P24" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q24" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="R24" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="U24" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="V24" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="W24" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="P25" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q25" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="R25" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="U25" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="V25" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="W25" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="P26" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q26" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="R26" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="U26" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="V26" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="W26" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="P27" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q27" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="R27" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="U27" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="V27" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="W27" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="M28" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="P28" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q28" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="R28" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="U28" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="V28" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="W28" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="P29" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q29" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="R29" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="U29" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="V29" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="W29" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="K32" s="2"/>
-    </row>
-    <row r="33">
-      <c r="B33" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="L39" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="L40" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="K41" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="L41" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="K42" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="L42" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="L43" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="J44" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="K44" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="L44" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="K45" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="L45" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="K46" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="L46" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="K47" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="L47" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="J48" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="L48" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="J49" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="K49" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="L49" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="K50" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="L50" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="J51" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="K51" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="L51" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="J52" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="K52" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="L52" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="J53" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="K53" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="L53" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="J54" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="K54" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="L54" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="J55" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="K55" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="L55" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="J56" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="K56" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="L56" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="J57" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="K57" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="L57" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="J58" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="K58" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="L58" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="J59" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="K59" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="L59" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="J60" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="K60" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="L60" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="J61" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="K61" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="L61" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="4"/>
-      <c r="B66" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="H66" s="6"/>
-      <c r="I66" s="4"/>
-      <c r="J66" s="4"/>
-      <c r="K66" s="6"/>
-      <c r="L66" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="M66" s="6"/>
-      <c r="N66" s="4"/>
-      <c r="O66" s="4"/>
-      <c r="P66" s="6"/>
-      <c r="Q66" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="R66" s="6"/>
-      <c r="S66" s="4"/>
-      <c r="T66" s="4"/>
-      <c r="U66" s="6"/>
-      <c r="V66" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="W66" s="6"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D67" s="4"/>
-      <c r="E67" s="4"/>
-      <c r="F67" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="G67" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="H67" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="I67" s="4"/>
-      <c r="J67" s="4"/>
-      <c r="K67" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="L67" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="M67" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="N67" s="4"/>
-      <c r="O67" s="4"/>
-      <c r="P67" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q67" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="R67" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="S67" s="4"/>
-      <c r="T67" s="4"/>
-      <c r="U67" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="V67" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="W67" s="7" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="4"/>
-      <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="4"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
-      <c r="I68" s="4"/>
-      <c r="J68" s="4"/>
-      <c r="K68" s="6"/>
-      <c r="L68" s="6"/>
-      <c r="M68" s="6"/>
-      <c r="N68" s="4"/>
-      <c r="O68" s="4"/>
-      <c r="P68" s="6"/>
-      <c r="Q68" s="6"/>
-      <c r="R68" s="6"/>
-      <c r="S68" s="4"/>
-      <c r="T68" s="4"/>
-      <c r="U68" s="6"/>
-      <c r="V68" s="6"/>
-      <c r="W68" s="6"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="C69" s="5">
-        <v>21.9</v>
-      </c>
-      <c r="D69" s="4"/>
-      <c r="E69" s="4"/>
-      <c r="F69" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="G69" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="H69" s="7">
-        <v>12.9</v>
-      </c>
-      <c r="I69" s="4"/>
-      <c r="J69" s="4"/>
-      <c r="K69" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="L69" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="M69" s="7">
-        <v>21.2</v>
-      </c>
-      <c r="N69" s="4"/>
-      <c r="O69" s="4"/>
-      <c r="P69" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q69" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="R69" s="7">
-        <v>19.8</v>
-      </c>
-      <c r="S69" s="4"/>
-      <c r="T69" s="4"/>
-      <c r="U69" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="V69" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="W69" s="7">
-        <v>6.2</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="C70" s="5">
-        <v>22.1</v>
-      </c>
-      <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
-      <c r="F70" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G70" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="H70" s="7">
-        <v>7.9</v>
-      </c>
-      <c r="I70" s="4"/>
-      <c r="J70" s="4"/>
-      <c r="K70" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L70" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="M70" s="7">
-        <v>21.3</v>
-      </c>
-      <c r="N70" s="4"/>
-      <c r="O70" s="4"/>
-      <c r="P70" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q70" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="R70" s="7">
-        <v>18.1</v>
-      </c>
-      <c r="S70" s="4"/>
-      <c r="T70" s="4"/>
-      <c r="U70" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="V70" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="W70" s="7">
-        <v>5.8</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="C71" s="5">
-        <v>20.0</v>
-      </c>
-      <c r="D71" s="4"/>
-      <c r="E71" s="4"/>
-      <c r="F71" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G71" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="H71" s="7">
-        <v>2.5</v>
-      </c>
-      <c r="I71" s="4"/>
-      <c r="J71" s="4"/>
-      <c r="K71" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L71" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="M71" s="7">
-        <v>18.3</v>
-      </c>
-      <c r="N71" s="4"/>
-      <c r="O71" s="4"/>
-      <c r="P71" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q71" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="R71" s="7">
-        <v>20.1</v>
-      </c>
-      <c r="S71" s="4"/>
-      <c r="T71" s="4"/>
-      <c r="U71" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="V71" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="W71" s="7">
-        <v>5.8</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="C72" s="5">
-        <v>17.7</v>
-      </c>
-      <c r="D72" s="4"/>
-      <c r="E72" s="4"/>
-      <c r="F72" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G72" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="H72" s="7">
-        <v>10.0</v>
-      </c>
-      <c r="I72" s="4"/>
-      <c r="J72" s="4"/>
-      <c r="K72" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="L72" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="M72" s="7">
-        <v>19.1</v>
-      </c>
-      <c r="N72" s="4"/>
-      <c r="O72" s="4"/>
-      <c r="P72" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q72" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="R72" s="7">
-        <v>20.6</v>
-      </c>
-      <c r="S72" s="4"/>
-      <c r="T72" s="4"/>
-      <c r="U72" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="V72" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="W72" s="7">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="C73" s="5">
-        <v>20.9</v>
-      </c>
-      <c r="D73" s="4"/>
-      <c r="E73" s="4"/>
-      <c r="F73" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G73" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="H73" s="7">
-        <v>12.0</v>
-      </c>
-      <c r="I73" s="4"/>
-      <c r="J73" s="4"/>
-      <c r="K73" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="L73" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="M73" s="7">
-        <v>18.4</v>
-      </c>
-      <c r="N73" s="4"/>
-      <c r="O73" s="4"/>
-      <c r="P73" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q73" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="R73" s="7">
-        <v>17.5</v>
-      </c>
-      <c r="S73" s="4"/>
-      <c r="T73" s="4"/>
-      <c r="U73" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="V73" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="W73" s="7">
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="C74" s="5">
-        <v>19.3</v>
-      </c>
-      <c r="D74" s="4"/>
-      <c r="E74" s="4"/>
-      <c r="F74" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G74" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="H74" s="7">
-        <v>5.9</v>
-      </c>
-      <c r="I74" s="4"/>
-      <c r="J74" s="4"/>
-      <c r="K74" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L74" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="M74" s="7">
-        <v>16.6</v>
-      </c>
-      <c r="N74" s="4"/>
-      <c r="O74" s="4"/>
-      <c r="P74" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q74" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="R74" s="7">
-        <v>20.8</v>
-      </c>
-      <c r="S74" s="4"/>
-      <c r="T74" s="4"/>
-      <c r="U74" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="V74" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="W74" s="7">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="C75" s="5">
-        <v>24.4</v>
-      </c>
-      <c r="D75" s="4"/>
-      <c r="E75" s="4"/>
-      <c r="F75" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G75" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="H75" s="7">
-        <v>3.3</v>
-      </c>
-      <c r="I75" s="4"/>
-      <c r="J75" s="4"/>
-      <c r="K75" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="L75" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="M75" s="7">
-        <v>20.7</v>
-      </c>
-      <c r="N75" s="4"/>
-      <c r="O75" s="4"/>
-      <c r="P75" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q75" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="R75" s="7">
-        <v>17.1</v>
-      </c>
-      <c r="S75" s="4"/>
-      <c r="T75" s="4"/>
-      <c r="U75" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="V75" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="W75" s="7">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="C76" s="5">
-        <v>24.1</v>
-      </c>
-      <c r="D76" s="4"/>
-      <c r="E76" s="4"/>
-      <c r="F76" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G76" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="H76" s="7">
-        <v>6.1</v>
-      </c>
-      <c r="I76" s="4"/>
-      <c r="J76" s="4"/>
-      <c r="K76" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L76" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="M76" s="7">
-        <v>20.4</v>
-      </c>
-      <c r="N76" s="4"/>
-      <c r="O76" s="4"/>
-      <c r="P76" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q76" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="R76" s="7">
-        <v>17.0</v>
-      </c>
-      <c r="S76" s="4"/>
-      <c r="T76" s="4"/>
-      <c r="U76" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="V76" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="W76" s="7">
-        <v>9.1</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="C77" s="5">
-        <v>23.0</v>
-      </c>
-      <c r="D77" s="4"/>
-      <c r="E77" s="4"/>
-      <c r="F77" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G77" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="H77" s="7">
-        <v>11.5</v>
-      </c>
-      <c r="I77" s="4"/>
-      <c r="J77" s="4"/>
-      <c r="K77" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="L77" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="M77" s="7">
-        <v>17.3</v>
-      </c>
-      <c r="N77" s="4"/>
-      <c r="O77" s="4"/>
-      <c r="P77" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q77" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="R77" s="7">
-        <v>18.6</v>
-      </c>
-      <c r="S77" s="4"/>
-      <c r="T77" s="4"/>
-      <c r="U77" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="V77" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="W77" s="7">
-        <v>6.6</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="C78" s="5">
-        <v>19.6</v>
-      </c>
-      <c r="D78" s="4"/>
-      <c r="E78" s="4"/>
-      <c r="F78" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="G78" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="H78" s="7">
+        <v>95</v>
+      </c>
+      <c r="B8" s="2">
         <v>0.0</v>
       </c>
-      <c r="I78" s="4"/>
-      <c r="J78" s="4"/>
-      <c r="K78" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="L78" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="M78" s="7">
-        <v>21.8</v>
-      </c>
-      <c r="N78" s="4"/>
-      <c r="O78" s="4"/>
-      <c r="P78" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q78" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="R78" s="7">
-        <v>17.2</v>
-      </c>
-      <c r="S78" s="4"/>
-      <c r="T78" s="4"/>
-      <c r="U78" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="V78" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="W78" s="7">
-        <v>6.1</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B79" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="C79" s="5">
-        <v>23.5</v>
-      </c>
-      <c r="D79" s="4"/>
-      <c r="E79" s="4"/>
-      <c r="F79" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G79" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="H79" s="7">
-        <v>12.2</v>
-      </c>
-      <c r="I79" s="4"/>
-      <c r="J79" s="4"/>
-      <c r="K79" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="L79" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="M79" s="7">
-        <v>21.6</v>
-      </c>
-      <c r="N79" s="4"/>
-      <c r="O79" s="4"/>
-      <c r="P79" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q79" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="R79" s="7">
-        <v>16.6</v>
-      </c>
-      <c r="S79" s="4"/>
-      <c r="T79" s="4"/>
-      <c r="U79" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="V79" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="W79" s="7">
-        <v>8.1</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="B80" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="C80" s="5">
-        <v>22.8</v>
-      </c>
-      <c r="D80" s="4"/>
-      <c r="E80" s="4"/>
-      <c r="F80" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="G80" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="H80" s="7">
-        <v>8.4</v>
-      </c>
-      <c r="I80" s="4"/>
-      <c r="J80" s="4"/>
-      <c r="K80" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="L80" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="M80" s="7">
-        <v>18.6</v>
-      </c>
-      <c r="N80" s="4"/>
-      <c r="O80" s="4"/>
-      <c r="P80" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q80" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="R80" s="7">
-        <v>17.2</v>
-      </c>
-      <c r="S80" s="4"/>
-      <c r="T80" s="4"/>
-      <c r="U80" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="V80" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="W80" s="7">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="C81" s="5">
-        <v>24.3</v>
-      </c>
-      <c r="D81" s="4"/>
-      <c r="E81" s="4"/>
-      <c r="F81" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="G81" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="H81" s="7">
-        <v>12.1</v>
-      </c>
-      <c r="I81" s="4"/>
-      <c r="J81" s="4"/>
-      <c r="K81" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="L81" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="M81" s="7">
-        <v>16.6</v>
-      </c>
-      <c r="N81" s="4"/>
-      <c r="O81" s="4"/>
-      <c r="P81" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q81" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="R81" s="7">
-        <v>14.7</v>
-      </c>
-      <c r="S81" s="4"/>
-      <c r="T81" s="4"/>
-      <c r="U81" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="V81" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="W81" s="7">
-        <v>8.3</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B82" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="C82" s="5">
-        <v>18.5</v>
-      </c>
-      <c r="D82" s="4"/>
-      <c r="E82" s="4"/>
-      <c r="F82" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="G82" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="H82" s="7">
-        <v>5.8</v>
-      </c>
-      <c r="I82" s="4"/>
-      <c r="J82" s="4"/>
-      <c r="K82" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="L82" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="M82" s="7">
-        <v>18.1</v>
-      </c>
-      <c r="N82" s="4"/>
-      <c r="O82" s="4"/>
-      <c r="P82" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q82" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="R82" s="7">
-        <v>19.0</v>
-      </c>
-      <c r="S82" s="4"/>
-      <c r="T82" s="4"/>
-      <c r="U82" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="V82" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="W82" s="7">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B83" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="C83" s="5">
-        <v>19.5</v>
-      </c>
-      <c r="D83" s="4"/>
-      <c r="E83" s="4"/>
-      <c r="F83" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="G83" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="H83" s="7">
-        <v>13.8</v>
-      </c>
-      <c r="I83" s="4"/>
-      <c r="J83" s="4"/>
-      <c r="K83" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="L83" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="M83" s="7">
-        <v>20.8</v>
-      </c>
-      <c r="N83" s="4"/>
-      <c r="O83" s="4"/>
-      <c r="P83" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q83" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="R83" s="7">
-        <v>16.2</v>
-      </c>
-      <c r="S83" s="4"/>
-      <c r="T83" s="4"/>
-      <c r="U83" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="V83" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="W83" s="7">
-        <v>8.2</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B84" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="C84" s="5">
-        <v>19.5</v>
-      </c>
-      <c r="D84" s="4"/>
-      <c r="E84" s="4"/>
-      <c r="F84" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G84" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="H84" s="7">
-        <v>8.8</v>
-      </c>
-      <c r="I84" s="4"/>
-      <c r="J84" s="4"/>
-      <c r="K84" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="L84" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="M84" s="7">
-        <v>20.4</v>
-      </c>
-      <c r="N84" s="4"/>
-      <c r="O84" s="4"/>
-      <c r="P84" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q84" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="R84" s="7">
-        <v>20.3</v>
-      </c>
-      <c r="S84" s="4"/>
-      <c r="T84" s="4"/>
-      <c r="U84" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="V84" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="W84" s="7">
-        <v>8.3</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B85" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C85" s="5">
-        <v>20.3</v>
-      </c>
-      <c r="D85" s="4"/>
-      <c r="E85" s="4"/>
-      <c r="F85" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="G85" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="H85" s="7">
-        <v>11.3</v>
-      </c>
-      <c r="I85" s="4"/>
-      <c r="J85" s="4"/>
-      <c r="K85" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L85" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="M85" s="7">
-        <v>19.0</v>
-      </c>
-      <c r="N85" s="4"/>
-      <c r="O85" s="4"/>
-      <c r="P85" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q85" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="R85" s="7">
-        <v>20.6</v>
-      </c>
-      <c r="S85" s="4"/>
-      <c r="T85" s="4"/>
-      <c r="U85" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="V85" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="W85" s="7">
-        <v>5.9</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="B86" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="C86" s="5">
-        <v>14.2</v>
-      </c>
-      <c r="D86" s="4"/>
-      <c r="E86" s="4"/>
-      <c r="F86" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="G86" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="H86" s="7">
-        <v>10.7</v>
-      </c>
-      <c r="I86" s="4"/>
-      <c r="J86" s="4"/>
-      <c r="K86" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="L86" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="M86" s="7">
-        <v>19.8</v>
-      </c>
-      <c r="N86" s="4"/>
-      <c r="O86" s="4"/>
-      <c r="P86" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q86" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="R86" s="7">
-        <v>19.8</v>
-      </c>
-      <c r="S86" s="4"/>
-      <c r="T86" s="4"/>
-      <c r="U86" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="V86" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="W86" s="7">
-        <v>6.7</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="C87" s="5">
-        <v>19.6</v>
-      </c>
-      <c r="D87" s="4"/>
-      <c r="E87" s="4"/>
-      <c r="F87" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G87" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="H87" s="7">
-        <v>9.4</v>
-      </c>
-      <c r="I87" s="4"/>
-      <c r="J87" s="4"/>
-      <c r="K87" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L87" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="M87" s="7">
-        <v>16.4</v>
-      </c>
-      <c r="N87" s="4"/>
-      <c r="O87" s="4"/>
-      <c r="P87" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q87" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="R87" s="7">
-        <v>20.2</v>
-      </c>
-      <c r="S87" s="4"/>
-      <c r="T87" s="4"/>
-      <c r="U87" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="V87" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="W87" s="7">
-        <v>8.1</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="C88" s="5">
-        <v>18.7</v>
-      </c>
-      <c r="D88" s="4"/>
-      <c r="E88" s="4"/>
-      <c r="F88" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="G88" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="H88" s="7">
-        <v>11.6</v>
-      </c>
-      <c r="I88" s="4"/>
-      <c r="J88" s="4"/>
-      <c r="K88" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="L88" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="M88" s="7">
-        <v>21.8</v>
-      </c>
-      <c r="N88" s="4"/>
-      <c r="O88" s="4"/>
-      <c r="P88" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q88" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="R88" s="7">
-        <v>21.4</v>
-      </c>
-      <c r="S88" s="4"/>
-      <c r="T88" s="4"/>
-      <c r="U88" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="V88" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="W88" s="7">
-        <v>7.1</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="B89" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="C89" s="5">
-        <v>17.4</v>
-      </c>
-      <c r="D89" s="4"/>
-      <c r="E89" s="4"/>
-      <c r="F89" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="G89" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="H89" s="7">
-        <v>4.6</v>
-      </c>
-      <c r="I89" s="4"/>
-      <c r="J89" s="4"/>
-      <c r="K89" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="L89" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="M89" s="7">
-        <v>21.6</v>
-      </c>
-      <c r="N89" s="4"/>
-      <c r="O89" s="4"/>
-      <c r="P89" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q89" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="R89" s="7">
-        <v>12.7</v>
-      </c>
-      <c r="S89" s="4"/>
-      <c r="T89" s="4"/>
-      <c r="U89" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="V89" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="W89" s="7">
-        <v>6.6</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B90" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="C90" s="5">
-        <v>24.9</v>
-      </c>
-      <c r="D90" s="4"/>
-      <c r="E90" s="4"/>
-      <c r="F90" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="G90" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="H90" s="7">
-        <v>11.7</v>
-      </c>
-      <c r="I90" s="4"/>
-      <c r="J90" s="4"/>
-      <c r="K90" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="L90" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="M90" s="7">
-        <v>17.0</v>
-      </c>
-      <c r="N90" s="4"/>
-      <c r="O90" s="4"/>
-      <c r="P90" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q90" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="R90" s="7">
-        <v>15.2</v>
-      </c>
-      <c r="S90" s="4"/>
-      <c r="T90" s="4"/>
-      <c r="U90" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="V90" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="W90" s="7">
-        <v>8.2</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B91" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="C91" s="5">
-        <v>23.2</v>
-      </c>
-      <c r="D91" s="4"/>
-      <c r="E91" s="4"/>
-      <c r="F91" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G91" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="H91" s="7">
-        <v>8.0</v>
-      </c>
-      <c r="I91" s="4"/>
-      <c r="J91" s="4"/>
-      <c r="K91" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="L91" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="M91" s="7">
-        <v>17.2</v>
-      </c>
-      <c r="N91" s="4"/>
-      <c r="O91" s="4"/>
-      <c r="P91" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q91" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="R91" s="7">
-        <v>18.1</v>
-      </c>
-      <c r="S91" s="4"/>
-      <c r="T91" s="4"/>
-      <c r="U91" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="V91" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="W91" s="7">
-        <v>9.7</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B92" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="C92" s="5">
-        <v>23.9</v>
-      </c>
-      <c r="D92" s="4"/>
-      <c r="E92" s="4"/>
-      <c r="F92" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G92" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="H92" s="7">
-        <v>8.1</v>
-      </c>
-      <c r="I92" s="4"/>
-      <c r="J92" s="4"/>
-      <c r="K92" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="L92" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="M92" s="7">
-        <v>14.0</v>
-      </c>
-      <c r="N92" s="4"/>
-      <c r="O92" s="4"/>
-      <c r="P92" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q92" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="R92" s="7">
-        <v>18.4</v>
-      </c>
-      <c r="S92" s="4"/>
-      <c r="T92" s="4"/>
-      <c r="U92" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="V92" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="W92" s="7">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="C93" s="5">
-        <v>24.1</v>
-      </c>
-      <c r="D93" s="4"/>
-      <c r="E93" s="4"/>
-      <c r="F93" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G93" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="H93" s="7">
-        <v>8.5</v>
-      </c>
-      <c r="I93" s="4"/>
-      <c r="J93" s="4"/>
-      <c r="K93" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="L93" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="M93" s="7">
-        <v>16.0</v>
-      </c>
-      <c r="N93" s="4"/>
-      <c r="O93" s="4"/>
-      <c r="P93" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q93" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="R93" s="7">
-        <v>19.3</v>
-      </c>
-      <c r="S93" s="4"/>
-      <c r="T93" s="4"/>
-      <c r="U93" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="V93" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="W93" s="7">
-        <v>6.3</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B94" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="C94" s="5">
-        <v>22.3</v>
-      </c>
-      <c r="D94" s="4"/>
-      <c r="E94" s="4"/>
-      <c r="F94" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G94" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="H94" s="7">
-        <v>6.4</v>
-      </c>
-      <c r="I94" s="4"/>
-      <c r="J94" s="4"/>
-      <c r="K94" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="L94" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="M94" s="7">
-        <v>20.9</v>
-      </c>
-      <c r="N94" s="4"/>
-      <c r="O94" s="4"/>
-      <c r="P94" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q94" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="R94" s="7">
-        <v>18.0</v>
-      </c>
-      <c r="S94" s="4"/>
-      <c r="T94" s="4"/>
-      <c r="U94" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="V94" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="W94" s="7">
-        <v>6.3</v>
+      <c r="C8" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
